--- a/DataFileSamples/MudStone.xlsx
+++ b/DataFileSamples/MudStone.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/GeoCode/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GeoPython/DataFileSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -713,15 +713,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Z</t>
+    <t>clay</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
+    <t>sand</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
+    <t>silt</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>

--- a/DataFileSamples/MudStone.xlsx
+++ b/DataFileSamples/MudStone.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GeoPython/DataFileSamples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/GeoCode/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -713,15 +713,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clay</t>
+    <t>Z</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>sand</t>
+    <t>X</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>silt</t>
+    <t>Y</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
